--- a/SDL/Testing/Unit_Test_Tracking.xlsx
+++ b/SDL/Testing/Unit_Test_Tracking.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Test #</t>
   </si>
@@ -25,17 +25,10 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RiskTracker Class Test</t>
-  </si>
-  <si>
-    <t>This test suite shall test all components
-/functions of the RiskTracker class</t>
-  </si>
-  <si>
-    <t>U2</t>
+    <t>Manual Tests</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>DashboardView Class Test</t>
@@ -45,7 +38,7 @@
 /functions of the DashboardView class</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>M2</t>
   </si>
   <si>
     <t>SetRiskIDView Class Test</t>
@@ -55,7 +48,7 @@
 /functions of the SetRiskIDView class</t>
   </si>
   <si>
-    <t>U4</t>
+    <t>M3</t>
   </si>
   <si>
     <t>AddUserView Class Test</t>
@@ -65,7 +58,7 @@
 /functions of the AddUserView class</t>
   </si>
   <si>
-    <t>U5</t>
+    <t>M4</t>
   </si>
   <si>
     <t>EditUserView Class</t>
@@ -75,7 +68,7 @@
 /functions of the EditUserView class</t>
   </si>
   <si>
-    <t>U6</t>
+    <t>M5</t>
   </si>
   <si>
     <t>ChangeUserRoleView Class
@@ -87,7 +80,7 @@
 class</t>
   </si>
   <si>
-    <t>U7</t>
+    <t>M6</t>
   </si>
   <si>
     <t>DeleteUserView Class Test</t>
@@ -97,7 +90,7 @@
 /functions of the DeleteUserView class</t>
   </si>
   <si>
-    <t>U8</t>
+    <t>M7</t>
   </si>
   <si>
     <t>AddRiskView Class Test</t>
@@ -107,7 +100,7 @@
 /functions of the AddRiskView class</t>
   </si>
   <si>
-    <t>U9</t>
+    <t>M8</t>
   </si>
   <si>
     <t>EditRiskView Class Test</t>
@@ -117,7 +110,7 @@
 /functions of the EditRiskView class</t>
   </si>
   <si>
-    <t>U10</t>
+    <t>M9</t>
   </si>
   <si>
     <t>RankRiskView Class Test</t>
@@ -127,7 +120,7 @@
 /functions of the RankRiskView class</t>
   </si>
   <si>
-    <t>U11</t>
+    <t>M10</t>
   </si>
   <si>
     <t>DeleteRiskView Class Test</t>
@@ -137,7 +130,7 @@
 /functions of the DeleteRiskView class</t>
   </si>
   <si>
-    <t>U12</t>
+    <t>M11</t>
   </si>
   <si>
     <t>LoginpageView Class Test</t>
@@ -147,7 +140,7 @@
 /functions of the LoginpageView class</t>
   </si>
   <si>
-    <t>U13</t>
+    <t>M12</t>
   </si>
   <si>
     <t>EnterEmailView Class Test</t>
@@ -157,7 +150,7 @@
 /functions of the EnterEmailView class</t>
   </si>
   <si>
-    <t>U14</t>
+    <t>M13</t>
   </si>
   <si>
     <t>VerifyEmailCodeView Class Test</t>
@@ -168,7 +161,7 @@
 class</t>
   </si>
   <si>
-    <t>U15</t>
+    <t>M14</t>
   </si>
   <si>
     <t>ForgetPasswordView Class Test</t>
@@ -179,7 +172,10 @@
 class</t>
   </si>
   <si>
-    <t>U16</t>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>U1</t>
   </si>
   <si>
     <t>Report Class Test</t>
@@ -189,7 +185,7 @@
 /functions of the Report class</t>
   </si>
   <si>
-    <t>U17</t>
+    <t>U2</t>
   </si>
   <si>
     <t>Risk Class Test</t>
@@ -199,7 +195,7 @@
 /functions of the Risk class</t>
   </si>
   <si>
-    <t>U18</t>
+    <t>U3</t>
   </si>
   <si>
     <t>User Class Test</t>
@@ -209,7 +205,7 @@
 /functions of the User class</t>
   </si>
   <si>
-    <t>U19</t>
+    <t>U4</t>
   </si>
   <si>
     <t>DatabaseConnection Class Test</t>
@@ -218,6 +214,16 @@
     <t>This test suite shall test all components
 /functions of the DatabaseConnection
 class</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>RiskTracker Class Test</t>
+  </si>
+  <si>
+    <t>This test suite shall test all components
+/functions of the RiskTracker class</t>
   </si>
 </sst>
 </file>
@@ -503,212 +509,222 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
